--- a/excel/Stock.xlsx
+++ b/excel/Stock.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -43,6 +43,14 @@
   </si>
   <si>
     <t>火热出击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>价格波动标准差</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>std_dev</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -387,19 +395,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="12.75" customWidth="1"/>
+    <col min="4" max="4" width="15.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -409,8 +417,11 @@
       <c r="C1" t="s">
         <v>4</v>
       </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -420,8 +431,11 @@
       <c r="C2" t="s">
         <v>5</v>
       </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:4">
       <c r="A3">
         <v>1</v>
       </c>
@@ -430,6 +444,9 @@
       </c>
       <c r="C3">
         <v>100</v>
+      </c>
+      <c r="D3">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
